--- a/dataFiles/onboarding/onboardingCancer.xlsx
+++ b/dataFiles/onboarding/onboardingCancer.xlsx
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:DF12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
